--- a/CahierDeRecettes.xlsx
+++ b/CahierDeRecettes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68006c2112ec4a7/Documents/BTS2/C^N/PPE Csharp/GestionInfirmerie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{6DE30D17-D755-4BC8-BA1E-C375425D5EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EC5341B-D357-450A-ADBB-BBC05022439B}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{6DE30D17-D755-4BC8-BA1E-C375425D5EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54BD8F1-416A-4381-840A-684D1DE37EA1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Personne qui fait le test</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Formulaire de menu</t>
   </si>
   <si>
-    <t>Page de détails des élèves</t>
-  </si>
-  <si>
     <t>#13</t>
   </si>
   <si>
@@ -241,6 +238,21 @@
   </si>
   <si>
     <t>Ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Fonctionnalité</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Gestion Elèves</t>
+  </si>
+  <si>
+    <t>Gestion Médicaments</t>
+  </si>
+  <si>
+    <t>Page de consultation</t>
   </si>
 </sst>
 </file>
@@ -268,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +331,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,8 +347,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF996633"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -439,11 +457,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,12 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,6 +519,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,14 +571,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,6 +595,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF996633"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -795,25 +874,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" customWidth="1"/>
-    <col min="6" max="6" width="65.5546875" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="1" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.109375" customWidth="1"/>
+    <col min="7" max="7" width="65.5546875" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -821,453 +900,522 @@
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="18">
         <v>44525</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12">
+      <c r="D9" s="18">
         <v>44525</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="18">
+        <v>44525</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12">
+      <c r="B15" s="31"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="8">
         <v>44525</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44525</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44525</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="13">
+        <v>44532</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+      <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="10">
-        <v>44525</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="D23" s="13">
+        <v>44532</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+      <c r="C24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10">
-        <v>44525</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="10">
-        <v>44525</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D24" s="13">
+        <v>44532</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="B3:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CahierDeRecettes.xlsx
+++ b/CahierDeRecettes.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68006c2112ec4a7/Documents/BTS2/C^N/PPE Csharp/GestionInfirmerie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victo\OneDrive\Documents\BTS2\C#\PPE Csharp\GestionInfirmerie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{6DE30D17-D755-4BC8-BA1E-C375425D5EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54BD8F1-416A-4381-840A-684D1DE37EA1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6BDA8-23D1-4EA8-910C-6D0A58177C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="151">
   <si>
     <t>Personne qui fait le test</t>
   </si>
@@ -57,18 +66,12 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Message d'erreur et impossibilité de se connecter</t>
-  </si>
-  <si>
     <t>#2</t>
   </si>
   <si>
     <t>#3</t>
   </si>
   <si>
-    <t>Message d'erreur</t>
-  </si>
-  <si>
     <t>#4</t>
   </si>
   <si>
@@ -108,21 +111,12 @@
     <t>#12</t>
   </si>
   <si>
-    <t>Les détails de tous les élèves sont affichées</t>
-  </si>
-  <si>
     <t>Affichage des détails de l'élève portant le nom recherché uniquement</t>
   </si>
   <si>
-    <t>Fermeture du formulaire des détails des élèves</t>
-  </si>
-  <si>
     <t>Fermeture de l'application</t>
   </si>
   <si>
-    <t>Possibilité de personnaliser le message d'erreur</t>
-  </si>
-  <si>
     <t>SPRINT 1</t>
   </si>
   <si>
@@ -147,24 +141,6 @@
     <t>Maxime</t>
   </si>
   <si>
-    <t xml:space="preserve">Modifier un élève </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supprimer un élève </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter un élève </t>
-  </si>
-  <si>
-    <t>Page d'ajout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page de suppression </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page de modification </t>
-  </si>
-  <si>
     <t>Entrer le login et le mot de passe correctement et cliquer sur valider</t>
   </si>
   <si>
@@ -183,12 +159,6 @@
     <t>Retourner au formulaire de menu en cliquant sur le bouton retour</t>
   </si>
   <si>
-    <t>Rechercher un élève avec un nom existant et cliquer sur valider</t>
-  </si>
-  <si>
-    <t>Rechercher un élève avec un nom n'existant pas et cliquer sur valider</t>
-  </si>
-  <si>
     <t>Afficher les détails de tous les élèves en arrivant sur le formulaire</t>
   </si>
   <si>
@@ -204,27 +174,6 @@
     <t>Accéder au formulaire de suppression des élèves en cliquant sur le bouton associé</t>
   </si>
   <si>
-    <t>Ouverture du formulaire de consultation des élèves afin de consulter un élève</t>
-  </si>
-  <si>
-    <t>Ouverture du formulaire d'ajout des élèves afin de consulter un élève</t>
-  </si>
-  <si>
-    <t>Ouverture du formulaire de modification des élèves afin de consulter un élève</t>
-  </si>
-  <si>
-    <t>Ouverture du formulaire de suppression des élèves afin de consulter un élève</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout d'un nouvel élève dans la base de données de l'infirmerie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suppression d'un élève dans la base de données de l'infirmerie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modification d'un élève dans la base de données de l'infirmerie </t>
-  </si>
-  <si>
     <t>#16</t>
   </si>
   <si>
@@ -234,12 +183,6 @@
     <t>#18</t>
   </si>
   <si>
-    <t>ECHEC</t>
-  </si>
-  <si>
-    <t>Ne fonctionne pas</t>
-  </si>
-  <si>
     <t>Fonctionnalité</t>
   </si>
   <si>
@@ -252,14 +195,305 @@
     <t>Gestion Médicaments</t>
   </si>
   <si>
-    <t>Page de consultation</t>
+    <t>Formulaire de consultation</t>
+  </si>
+  <si>
+    <t>Formulaire d'ajout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire de suppression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire de modification </t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>Inscription du médicament et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Ne pas remplir les caractéristiques du médicament et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Affichage d'un message d'erreur et impossibilité de se connecter</t>
+  </si>
+  <si>
+    <t>Affichage d'un message d'erreur</t>
+  </si>
+  <si>
+    <t>Affichage d'un message de confirmation</t>
+  </si>
+  <si>
+    <t>Validation du message de confirmation</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retourner au formulaire de menu en cliquant sur le bouton retour </t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de consultation des élèves</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>Remplir les caractéristiques du médicament que l'on souhaite ajouter et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Sélectionner le médicament que l'on souhaite supprimer et cliquer sur le bouton supprimer</t>
+  </si>
+  <si>
+    <t>Suppression du médicament et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Non validation du message de confirmation</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire d'ajout des médicaments et retour au menu</t>
+  </si>
+  <si>
+    <t>Retour au formulaire d'ajout des médicaments</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>Retour au formulaire de suppression des médicaments</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de suppression des médicaments et retour au menu</t>
+  </si>
+  <si>
+    <t>Sélectionner le médicament que l'on souhaite modifier et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire de consultation des élèves</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire d'ajout des élèves</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire de modification des élèves</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire de suppression des élèves</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire de modification des médicaments</t>
+  </si>
+  <si>
+    <t>Ne rien sélectionner et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Ne rien sélectionner et cliquer sur le bouton supprimer</t>
+  </si>
+  <si>
+    <t>Sélection du premier médicament par défaut et ouverture du formulaire de modification des médicaments</t>
+  </si>
+  <si>
+    <t>Modifier les caractéristiques du médicament que l'on souhaite modifier et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Ne pas modifier les caractéristiques du médicament et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>Modification du médicament et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Retour au formulaire de modification des médicaments</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de modification des médicaments et retour au menu</t>
+  </si>
+  <si>
+    <t>Sélection du premier médicament par défaut et affichage d'un message de confirmation</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>Rechercher un élève avec un nom n'existant pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun médicament trouvé </t>
+  </si>
+  <si>
+    <t>Rechercher un élève avec un nom existant</t>
+  </si>
+  <si>
+    <t>Affichage des détails du médicament portant le nom recherché uniquement</t>
+  </si>
+  <si>
+    <t>Rechercher un médicament avec un nom n'existant pas</t>
+  </si>
+  <si>
+    <t>Rechercher un médicament avec un nom existant</t>
+  </si>
+  <si>
+    <t>Afficher les détails de tous les médicaments en arrivant sur le formulaire</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>#48</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>Remplir les caractéristiques de l'élève que l'on souhaite ajouter et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Ne pas remplir les caractéristiques de l'élève et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Sélectionner l'élève que l'on souhaite modifier et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Modifier les caractéristiques de l'élève que l'on souhaite modifier et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Ne pas modifier les caractéristiques de l'élève et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Sélectionner l'élève que l'on souhaite supprimer et cliquer sur le bouton supprimer</t>
+  </si>
+  <si>
+    <t>Inscription de l'élève et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Retour au formulaire d'ajout des élèves</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire d'ajout des élèves et retour au menu</t>
+  </si>
+  <si>
+    <t>Sélection du premier élève par défaut et ouverture du formulaire de modification des élèves</t>
+  </si>
+  <si>
+    <t>Modification de l'élève et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Retour au formulaire de modification des élèves</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de modification des élèves et retour au menu</t>
+  </si>
+  <si>
+    <t>Sélection du premier élève par défaut et affichage d'un message de confirmation</t>
+  </si>
+  <si>
+    <t>Suppression du élèves et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Retour au formulaire de suppression des élèves</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de suppression des élèves et retour au menu</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermeture du menu consultation et retour à l'accueil </t>
+  </si>
+  <si>
+    <t>Les détails de tous les médicaments sont affichés</t>
+  </si>
+  <si>
+    <t>Les détails de tous les élèves sont affichés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,14 +507,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +566,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,26 +732,59 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,54 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,20 +1081,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="70.109375" customWidth="1"/>
-    <col min="7" max="7" width="65.5546875" customWidth="1"/>
+    <col min="6" max="6" width="92.44140625" customWidth="1"/>
+    <col min="7" max="7" width="92.33203125" customWidth="1"/>
     <col min="8" max="8" width="39.6640625" customWidth="1"/>
     <col min="9" max="9" width="44.6640625" customWidth="1"/>
   </cols>
@@ -897,10 +1105,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -909,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -922,36 +1130,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="B3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12">
         <v>44525</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -959,463 +1167,1255 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>18</v>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>31</v>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>31</v>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>18</v>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>18</v>
+      <c r="I7" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>18</v>
+      <c r="I8" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="18">
-        <v>44525</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
+      <c r="I9" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12">
+        <v>44525</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>18</v>
+      <c r="I10" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
+      <c r="I11" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>18</v>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>18</v>
+      <c r="I13" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="18">
-        <v>44525</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>18</v>
+      <c r="I14" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
+      <c r="I15" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="12">
+        <v>44525</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>18</v>
+      <c r="I16" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="5" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
+      <c r="I17" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8">
-        <v>44525</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="11" t="s">
         <v>70</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="8">
-        <v>44525</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>70</v>
+        <v>150</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="8">
+        <v>48</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="12">
         <v>44525</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>39</v>
+      <c r="E20" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="G24" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="12">
+        <v>44525</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="12">
+        <v>44525</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="19">
+        <v>44532</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="G38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="19">
+        <v>44532</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44532</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="H52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="12">
         <v>44532</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="13">
-        <v>44532</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
-      <c r="C24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="13">
-        <v>44532</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="E55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E14:E17"/>
+  <mergeCells count="34">
+    <mergeCell ref="B38:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B3:B36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CahierDeRecettes.xlsx
+++ b/CahierDeRecettes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victo\OneDrive\Documents\BTS2\C#\PPE Csharp\GestionInfirmerie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68006c2112ec4a7/Documents/BTS2/C^N/PPE Csharp/GestionInfirmerie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6BDA8-23D1-4EA8-910C-6D0A58177C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{ABD6BDA8-23D1-4EA8-910C-6D0A58177C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497C094F-547D-4F88-A2B1-83D33CDA9A71}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="169">
   <si>
     <t>Personne qui fait le test</t>
   </si>
@@ -480,13 +480,67 @@
     <t>#54</t>
   </si>
   <si>
-    <t xml:space="preserve">Fermeture du menu consultation et retour à l'accueil </t>
-  </si>
-  <si>
     <t>Les détails de tous les médicaments sont affichés</t>
   </si>
   <si>
     <t>Les détails de tous les élèves sont affichés</t>
+  </si>
+  <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>Gestion Visites</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>Rechercher les informations d'une visite d'un élève n'existant pas</t>
+  </si>
+  <si>
+    <t>Rechercher les informations d'une visite d'un élève existant</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>#58</t>
+  </si>
+  <si>
+    <t>Rechercher les informations d'une visite a une date où il a eu une visite</t>
+  </si>
+  <si>
+    <t>Rechercher les informations d'une visite a une date où il n'y a pas eu de visite</t>
+  </si>
+  <si>
+    <t>Afficher les détails de toutes les visites en arrivant sur le formulaire</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>Les détails de toutes les visites sont affichées</t>
+  </si>
+  <si>
+    <t>Aucune visite trouvée</t>
+  </si>
+  <si>
+    <t>Affichage des détails de la visite lié au nom de l'élève recherché uniquement</t>
+  </si>
+  <si>
+    <t>Affichage des détails de la visite lié à la date recherché uniquement</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de consultation des médicaments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermeture du formulaire de consultation des visites </t>
   </si>
 </sst>
 </file>
@@ -735,7 +789,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,21 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,6 +841,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,32 +1186,32 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>44525</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1175,10 +1231,10 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
@@ -1196,10 +1252,10 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1217,10 +1273,10 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
@@ -1238,10 +1294,10 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1259,10 +1315,10 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1280,10 +1336,10 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
@@ -1301,14 +1357,14 @@
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>44525</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1328,10 +1384,10 @@
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
@@ -1349,10 +1405,10 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1370,10 +1426,10 @@
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1391,10 +1447,10 @@
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1412,10 +1468,10 @@
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="5" t="s">
         <v>66</v>
       </c>
@@ -1433,14 +1489,14 @@
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="14">
         <v>44525</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1460,10 +1516,10 @@
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="5" t="s">
         <v>109</v>
       </c>
@@ -1481,10 +1537,10 @@
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1502,15 +1558,15 @@
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>9</v>
@@ -1523,14 +1579,14 @@
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>44525</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1550,10 +1606,10 @@
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="5" t="s">
         <v>130</v>
       </c>
@@ -1571,10 +1627,10 @@
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="5" t="s">
         <v>66</v>
       </c>
@@ -1592,10 +1648,10 @@
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="5" t="s">
         <v>75</v>
       </c>
@@ -1613,10 +1669,10 @@
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1634,14 +1690,14 @@
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="14">
         <v>44525</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1661,10 +1717,10 @@
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="5" t="s">
         <v>92</v>
       </c>
@@ -1682,10 +1738,10 @@
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="5" t="s">
         <v>132</v>
       </c>
@@ -1703,10 +1759,10 @@
       <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="5" t="s">
         <v>133</v>
       </c>
@@ -1724,10 +1780,10 @@
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="5" t="s">
         <v>66</v>
       </c>
@@ -1745,10 +1801,10 @@
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="16"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1766,10 +1822,10 @@
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1787,14 +1843,14 @@
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="14">
         <v>44525</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -1814,10 +1870,10 @@
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="5" t="s">
         <v>93</v>
       </c>
@@ -1835,10 +1891,10 @@
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1856,10 +1912,10 @@
       <c r="A35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="16"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="5" t="s">
         <v>75</v>
       </c>
@@ -1877,10 +1933,10 @@
       <c r="A36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1895,32 +1951,32 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="27">
         <v>44532</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -1940,10 +1996,10 @@
       <c r="A39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="5" t="s">
         <v>62</v>
       </c>
@@ -1961,10 +2017,10 @@
       <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="5" t="s">
         <v>66</v>
       </c>
@@ -1982,10 +2038,10 @@
       <c r="A41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="16"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="5" t="s">
         <v>75</v>
       </c>
@@ -2003,10 +2059,10 @@
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="17"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="5" t="s">
         <v>69</v>
       </c>
@@ -2024,14 +2080,14 @@
       <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="27">
         <v>44532</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2051,10 +2107,10 @@
       <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="16"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="5" t="s">
         <v>92</v>
       </c>
@@ -2072,10 +2128,10 @@
       <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="16"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="5" t="s">
         <v>95</v>
       </c>
@@ -2093,10 +2149,10 @@
       <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="16"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="5" t="s">
         <v>96</v>
       </c>
@@ -2114,10 +2170,10 @@
       <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="16"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="5" t="s">
         <v>66</v>
       </c>
@@ -2135,10 +2191,10 @@
       <c r="A48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="16"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="5" t="s">
         <v>75</v>
       </c>
@@ -2156,10 +2212,10 @@
       <c r="A49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="5" t="s">
         <v>40</v>
       </c>
@@ -2177,14 +2233,14 @@
       <c r="A50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="14">
         <v>44532</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -2204,10 +2260,10 @@
       <c r="A51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="16"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="5" t="s">
         <v>93</v>
       </c>
@@ -2225,10 +2281,10 @@
       <c r="A52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="16"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="18"/>
       <c r="F52" s="5" t="s">
         <v>66</v>
       </c>
@@ -2246,10 +2302,10 @@
       <c r="A53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="16"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="5" t="s">
         <v>75</v>
       </c>
@@ -2267,10 +2323,10 @@
       <c r="A54" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="17"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="5" t="s">
         <v>40</v>
       </c>
@@ -2288,21 +2344,21 @@
       <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="14">
         <v>44532</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>9</v>
@@ -2315,15 +2371,15 @@
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="16"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>9</v>
@@ -2336,10 +2392,10 @@
       <c r="A57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="16"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="5" t="s">
         <v>114</v>
       </c>
@@ -2357,10 +2413,10 @@
       <c r="A58" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="17"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="5" t="s">
         <v>113</v>
       </c>
@@ -2375,13 +2431,177 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="14">
+        <v>44546</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="39">
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
     <mergeCell ref="B38:B58"/>
     <mergeCell ref="C55:C58"/>
     <mergeCell ref="D55:D58"/>
@@ -2398,24 +2618,6 @@
     <mergeCell ref="E50:E54"/>
     <mergeCell ref="C50:C54"/>
     <mergeCell ref="C43:C49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="E3:E9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CahierDeRecettes.xlsx
+++ b/CahierDeRecettes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b68006c2112ec4a7/Documents/BTS2/C^N/PPE Csharp/GestionInfirmerie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{ABD6BDA8-23D1-4EA8-910C-6D0A58177C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{497C094F-547D-4F88-A2B1-83D33CDA9A71}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{F0A75937-E8DC-40A9-8073-EFC48C228D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0446AEB-D200-49F3-A647-C754AC8BF230}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="122" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="207">
   <si>
     <t>Personne qui fait le test</t>
   </si>
@@ -541,6 +541,120 @@
   </si>
   <si>
     <t xml:space="preserve">Fermeture du formulaire de consultation des visites </t>
+  </si>
+  <si>
+    <t>#61</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>#63</t>
+  </si>
+  <si>
+    <t>#64</t>
+  </si>
+  <si>
+    <t>#65</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>Formulaire de modification</t>
+  </si>
+  <si>
+    <t>Remplir les caractéristiques de la visite que l'on souhaite ajouter et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Ne pas remplir les caractéristiques de la visite et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Modifier les caractéristiques de la visite que l'on souhaite modifier et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>Ne pas modifier les caractéristiques de la visite et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>#67</t>
+  </si>
+  <si>
+    <t>#68</t>
+  </si>
+  <si>
+    <t>#69</t>
+  </si>
+  <si>
+    <t>#70</t>
+  </si>
+  <si>
+    <t>#71</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>Inscription de la visite et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Retour au formulaire d'ajout des visites</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire d'ajout des visites et retour au menu</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire de modification des visites</t>
+  </si>
+  <si>
+    <t>Sélection dla première visite par défaut et ouverture du formulaire de modification des visites</t>
+  </si>
+  <si>
+    <t>Modification de la visite et de ses caractéristiques dans la base de données</t>
+  </si>
+  <si>
+    <t>Retour au formulaire de modification des visites</t>
+  </si>
+  <si>
+    <t>Fermeture du formulaire de modification des visites et retour au menu</t>
+  </si>
+  <si>
+    <t>#73</t>
+  </si>
+  <si>
+    <t>Lier un médicament à une visite</t>
+  </si>
+  <si>
+    <t>#74</t>
+  </si>
+  <si>
+    <t>Ouverture du formulaire d'ajout d'une visite</t>
+  </si>
+  <si>
+    <t>Sélectionner un élève auquel on veut ajouter une visite et cliquer sur le bouton ajouter</t>
+  </si>
+  <si>
+    <t>Sélectionner la visite lié à un élève que l'on souhaite modifier et cliquer sur le bouton modifier</t>
+  </si>
+  <si>
+    <t>#75</t>
+  </si>
+  <si>
+    <t>Ajouter un médicament ainsi qu'une dose de médicament à une visite</t>
+  </si>
+  <si>
+    <t>Ajouter/Modifier un médicament ainsi qu'une dose de médicament à une visite</t>
+  </si>
+  <si>
+    <t>Ne pas lier un médicament à une visite</t>
+  </si>
+  <si>
+    <t>Une visite n'est alors pas lié à un médicament</t>
+  </si>
+  <si>
+    <t>#76</t>
+  </si>
+  <si>
+    <t>#77</t>
   </si>
 </sst>
 </file>
@@ -768,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,6 +903,30 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,13 +936,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,31 +963,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,32 +1303,32 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="22">
         <v>44525</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1231,10 +1348,10 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
@@ -1252,10 +1369,10 @@
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1273,10 +1390,10 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
@@ -1294,10 +1411,10 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1315,10 +1432,10 @@
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
@@ -1336,10 +1453,10 @@
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
@@ -1357,14 +1474,14 @@
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="22">
         <v>44525</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1384,10 +1501,10 @@
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
@@ -1405,10 +1522,10 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1426,10 +1543,10 @@
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1447,10 +1564,10 @@
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1468,10 +1585,10 @@
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="5" t="s">
         <v>66</v>
       </c>
@@ -1489,14 +1606,14 @@
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="22">
         <v>44525</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1516,10 +1633,10 @@
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="5" t="s">
         <v>109</v>
       </c>
@@ -1537,10 +1654,10 @@
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1558,10 +1675,10 @@
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1579,14 +1696,14 @@
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="22">
         <v>44525</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1606,10 +1723,10 @@
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="5" t="s">
         <v>130</v>
       </c>
@@ -1627,10 +1744,10 @@
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="5" t="s">
         <v>66</v>
       </c>
@@ -1648,10 +1765,10 @@
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="5" t="s">
         <v>75</v>
       </c>
@@ -1669,10 +1786,10 @@
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
@@ -1690,14 +1807,14 @@
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="22">
         <v>44525</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1717,10 +1834,10 @@
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="5" t="s">
         <v>92</v>
       </c>
@@ -1738,10 +1855,10 @@
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="5" t="s">
         <v>132</v>
       </c>
@@ -1759,10 +1876,10 @@
       <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="5" t="s">
         <v>133</v>
       </c>
@@ -1780,10 +1897,10 @@
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="5" t="s">
         <v>66</v>
       </c>
@@ -1801,10 +1918,10 @@
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1822,10 +1939,10 @@
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1843,14 +1960,14 @@
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="22">
         <v>44525</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -1870,10 +1987,10 @@
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="5" t="s">
         <v>93</v>
       </c>
@@ -1891,10 +2008,10 @@
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1912,10 +2029,10 @@
       <c r="A35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="5" t="s">
         <v>75</v>
       </c>
@@ -1933,10 +2050,10 @@
       <c r="A36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1951,32 +2068,32 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="29">
         <v>44532</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -1996,10 +2113,10 @@
       <c r="A39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="5" t="s">
         <v>62</v>
       </c>
@@ -2017,10 +2134,10 @@
       <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="5" t="s">
         <v>66</v>
       </c>
@@ -2038,10 +2155,10 @@
       <c r="A41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="5" t="s">
         <v>75</v>
       </c>
@@ -2059,10 +2176,10 @@
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="5" t="s">
         <v>69</v>
       </c>
@@ -2080,14 +2197,14 @@
       <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="17"/>
+      <c r="C43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="29">
         <v>44532</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2107,10 +2224,10 @@
       <c r="A44" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="18"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="5" t="s">
         <v>92</v>
       </c>
@@ -2128,10 +2245,10 @@
       <c r="A45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="5" t="s">
         <v>95</v>
       </c>
@@ -2149,10 +2266,10 @@
       <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="18"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="5" t="s">
         <v>96</v>
       </c>
@@ -2170,10 +2287,10 @@
       <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="5" t="s">
         <v>66</v>
       </c>
@@ -2191,10 +2308,10 @@
       <c r="A48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="18"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="5" t="s">
         <v>75</v>
       </c>
@@ -2212,10 +2329,10 @@
       <c r="A49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="5" t="s">
         <v>40</v>
       </c>
@@ -2233,14 +2350,14 @@
       <c r="A50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="22">
         <v>44532</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -2260,10 +2377,10 @@
       <c r="A51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="5" t="s">
         <v>93</v>
       </c>
@@ -2281,10 +2398,10 @@
       <c r="A52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="18"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="5" t="s">
         <v>66</v>
       </c>
@@ -2302,10 +2419,10 @@
       <c r="A53" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="5" t="s">
         <v>75</v>
       </c>
@@ -2323,10 +2440,10 @@
       <c r="A54" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="5" t="s">
         <v>40</v>
       </c>
@@ -2344,14 +2461,14 @@
       <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="17"/>
+      <c r="C55" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="22">
         <v>44532</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F55" s="5" t="s">
@@ -2371,10 +2488,10 @@
       <c r="A56" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="18"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="5" t="s">
         <v>40</v>
       </c>
@@ -2392,10 +2509,10 @@
       <c r="A57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="5" t="s">
         <v>114</v>
       </c>
@@ -2413,10 +2530,10 @@
       <c r="A58" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="19"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="5" t="s">
         <v>113</v>
       </c>
@@ -2447,16 +2564,16 @@
       <c r="A60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="22">
         <v>44546</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="5" t="s">
@@ -2476,10 +2593,10 @@
       <c r="A61" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="18"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="5" t="s">
         <v>153</v>
       </c>
@@ -2497,10 +2614,10 @@
       <c r="A62" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="18"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="5" t="s">
         <v>154</v>
       </c>
@@ -2518,10 +2635,10 @@
       <c r="A63" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="18"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="5" t="s">
         <v>159</v>
       </c>
@@ -2539,10 +2656,10 @@
       <c r="A64" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="18"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="26"/>
       <c r="F64" s="5" t="s">
         <v>158</v>
       </c>
@@ -2560,10 +2677,10 @@
       <c r="A65" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="5" t="s">
         <v>40</v>
       </c>
@@ -2577,47 +2694,425 @@
         <v>16</v>
       </c>
     </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="22">
+        <v>44546</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="22">
+        <v>44546</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G83" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="45">
+    <mergeCell ref="B60:B82"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="E74:E82"/>
+    <mergeCell ref="D74:D82"/>
+    <mergeCell ref="C66:C73"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E73"/>
     <mergeCell ref="A59:I59"/>
-    <mergeCell ref="B60:B65"/>
     <mergeCell ref="C60:C65"/>
     <mergeCell ref="D60:D65"/>
     <mergeCell ref="E60:E65"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="B38:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B3:B36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C32:C36"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="E10:E15"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="B38:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B3:B36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C43:C49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
